--- a/biology/Zoologie/Jean-Yves_Gallard/Jean-Yves_Gallard.xlsx
+++ b/biology/Zoologie/Jean-Yves_Gallard/Jean-Yves_Gallard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Yves Gallard  est un entomologiste français spécialiste de la famille des Riodinidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Yves Gallard est né à Angers le 22 novembre 1943.
 Après des études aux Beaux-arts d'Angers, Rouen puis Beaux-Arts de Paris Jean-Yves Gallard est devenu enseignant d'arts plastiques à Cayenne.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gallard J.-Y.  
  1991a. À propos des espèces opalescentes du genre Euselasia en Guyane Française. Description de la ♀ de Euselasia fournierae Lathy 1924 (Lepidoptera Riodinidae). Bulletin de la Société Sciences Nat 69: 17-18, pl. 4, figs. 1-3 (30 April)
@@ -627,7 +643,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Riodinidae
